--- a/biology/Botanique/Phyllachne_colensoi/Phyllachne_colensoi.xlsx
+++ b/biology/Botanique/Phyllachne_colensoi/Phyllachne_colensoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllachne colensoi est une espèce de plantes dicotylédones de la famille des Stylidiaceae, originaire de Nouvelle-Zélande et de Tasmanie.
 Ce sont des plantes herbacées vivaces formant des coussins plats, compacts et durs, pouvant atteindre 10 cm de haut pour un diamètre de 20 à 40 cm. Cette espèce se rencontre dans des habitats de haute montagne, dans les prairies et les lieux rocailleux exposés.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (25 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (25 avril 2019) :
 Helophyllum colensoi Hook.f.
 Helophyllum muscoides Colenso</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, colensoi, est un hommage à William Colenso (1811-1899), missionnaire chrétien,  botaniste et explorateur cornique en Nouvelle-Zélande[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, colensoi, est un hommage à William Colenso (1811-1899), missionnaire chrétien,  botaniste et explorateur cornique en Nouvelle-Zélande.
 </t>
         </is>
       </c>
